--- a/M.GOWSELYA -19CSC11.xlsx
+++ b/M.GOWSELYA -19CSC11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>CLASS INTERVAL</t>
   </si>
@@ -453,14 +453,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1151,13 +1151,13 @@
       <c r="B33" s="2"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5"/>
@@ -1363,14 +1363,14 @@
       <c r="A58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="10" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
@@ -1688,7 +1688,7 @@
       <c r="A84" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -1700,15 +1700,20 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B85" s="7"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="2">
         <f>SQRT(D84)</f>
         <v>33.678456021617144</v>
       </c>
       <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
@@ -1721,11 +1726,11 @@
       <c r="F88" s="3"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="3"/>
@@ -1743,12 +1748,12 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
@@ -1934,12 +1939,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
